--- a/upload/cs-Elements.xlsx
+++ b/upload/cs-Elements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="228">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,8 +1555,8 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1606,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>121</v>
       </c>
@@ -1620,7 +1622,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1638,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1654,9 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1662,7 +1670,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1686,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1702,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1718,9 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1734,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B11" s="10" t="s">
         <v>122</v>
       </c>
@@ -1732,7 +1750,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1766,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1782,9 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1798,9 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1814,9 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1828,9 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1842,9 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>154</v>
       </c>
@@ -1826,7 +1858,9 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>146</v>
       </c>
@@ -1840,7 +1874,9 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>148</v>
       </c>
@@ -1854,7 +1890,9 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1906,9 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -1884,7 +1924,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1900,7 +1942,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1960,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1932,7 +1978,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B26" s="19" t="s">
         <v>39</v>
       </c>
@@ -1948,7 +1996,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B27" s="20" t="s">
         <v>109</v>
       </c>
@@ -1964,7 +2014,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1980,7 +2032,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
@@ -1996,7 +2050,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
@@ -2012,7 +2068,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2084,9 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>102</v>
       </c>
@@ -2040,7 +2100,9 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2056,7 +2118,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2072,7 +2136,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2088,7 +2154,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2104,7 +2172,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -2120,7 +2190,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B38" s="20" t="s">
         <v>111</v>
       </c>
@@ -2136,7 +2208,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>116</v>
       </c>
@@ -2152,7 +2226,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>123</v>
       </c>
@@ -2168,7 +2244,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B41" s="19" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2262,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2296,9 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B44" s="20" t="s">
         <v>112</v>
       </c>
@@ -2232,7 +2314,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B45" s="20" t="s">
         <v>111</v>
       </c>
@@ -2248,7 +2332,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
@@ -2264,7 +2350,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B47" s="19" t="s">
         <v>97</v>
       </c>
@@ -2296,7 +2384,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
@@ -2312,7 +2402,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
@@ -2346,7 +2438,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>87</v>
       </c>
@@ -2380,7 +2474,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2490,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>45</v>
       </c>
@@ -2444,7 +2542,9 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2458,7 +2558,9 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>33</v>
       </c>
@@ -2490,7 +2592,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -2536,7 +2640,9 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>161</v>
       </c>
@@ -2550,7 +2656,9 @@
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B65" s="5" t="s">
         <v>162</v>
       </c>
@@ -2564,7 +2672,9 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B66" s="5" t="s">
         <v>211</v>
       </c>
@@ -2580,7 +2690,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B67" s="5" t="s">
         <v>181</v>
       </c>
@@ -2596,7 +2708,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B68" s="5" t="s">
         <v>210</v>
       </c>
@@ -2612,7 +2726,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B69" s="5" t="s">
         <v>212</v>
       </c>
@@ -2628,7 +2744,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>171</v>
       </c>
@@ -2644,7 +2762,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B71" s="5" t="s">
         <v>173</v>
       </c>
@@ -2658,7 +2778,9 @@
       <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B72" s="5" t="s">
         <v>192</v>
       </c>
@@ -2674,7 +2796,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B73" s="5" t="s">
         <v>194</v>
       </c>
@@ -2690,7 +2814,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B74" s="5" t="s">
         <v>206</v>
       </c>
@@ -2722,7 +2848,9 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="B76" s="5" t="s">
         <v>188</v>
       </c>
@@ -2736,7 +2864,9 @@
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="B77" s="5" t="s">
         <v>178</v>
       </c>
@@ -2750,7 +2880,9 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="B78" s="5" t="s">
         <v>191</v>
       </c>
@@ -2782,7 +2914,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="B80" s="5" t="s">
         <v>201</v>
       </c>
@@ -2798,7 +2932,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="B81" s="5" t="s">
         <v>219</v>
       </c>
